--- a/TestList/6.0SCstudyexam.xlsx
+++ b/TestList/6.0SCstudyexam.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24645" windowHeight="12015"/>
+    <workbookView windowWidth="24525" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
   <si>
     <t>序号
 （id）</t>
@@ -114,13 +114,19 @@
     <t>enterclass</t>
   </si>
   <si>
-    <t>https://scjs2.59iedu.com/center/#/myRealClass/2c91b6ff61c02f5a0161d17372fd0173</t>
+    <t>https://scjs2.59iedu.com/center/#/myRealClass/2c9080f471c441890171f813df260c2f</t>
   </si>
   <si>
     <t>enterplay</t>
   </si>
   <si>
-    <t>https://scjs2.59iedu.com/play/#/learn/2c91b6ff61c02f5a0161d17372fd0173/2c9112ef616f18660161d16e14f57595/courseware</t>
+    <t>https://scjs2.59iedu.com/play/#/learn/2c9080f471c441890171f813df260c2f/2c90809870625ffc0171066e420648cd/courseware</t>
+  </si>
+  <si>
+    <t>ckick play</t>
+  </si>
+  <si>
+    <t>//*[@id="lesson_player_box_container_new_hwCloud_dom_baby"]/button</t>
   </si>
   <si>
     <t>wait play</t>
@@ -135,9 +141,6 @@
     <t>return enterclass</t>
   </si>
   <si>
-    <t>https://scjs2.59iedu.com/center/#/myRealClass/4028fbac62f1dcc901633f2408ad2587</t>
-  </si>
-  <si>
     <t>entereametab</t>
   </si>
   <si>
@@ -147,7 +150,8 @@
     <t>enterexam</t>
   </si>
   <si>
-    <t>https://hwexamv1.59iedu.com/web/examService/examination?id=daa27edc-2e24-4eae-b06b-fb67850e1ecd&amp;requestType=1&amp;projectId=40289b7c601f731801601f75222b0001&amp;subProjectId=40289b7c607be9b601607bedc3250003&amp;platformId=40289b7c601f2d9701601f2ff93f0000&amp;platformVersionId=40289b7c601f2d9701601f2ff9a60001&amp;dataPlatformVersionId=40289b7c601f2d9701601f2ff9a60001&amp;dataProjectId=40289b7c601f731801601f75222b0001&amp;test=false&amp;unitId=-1&amp;organizationId=-1&amp;userId=4028fbac62f1dba40163387a92dc5bd3&amp;isAsync=false&amp;bizParams={"redirectUrl":"https%3A%2F%2Fscjs2.59iedu.com%3A443%2Fcenter%2F%23%2FmyRealClass%2F4028fbac62f1dcc901633f2408ad2587%2FexamResult%2F4028fbac62f1dcc901633f2408ad2587</t>
+    <t xml:space="preserve">https://hwexamv1.59iedu.com/web/examService/examination?id=22a97726-996e-4fec-90fa-bba9ec95e283&amp;requestType=1&amp;projectId=40289b7c601f731801601f75222b0001&amp;subProjectId=40289b7c607be9b601607bedc3250003&amp;platformId=40289b7c601f2d9701601f2ff93f0000&amp;platformVersionId=40289b7c601f2d9701601f2ff9a60001&amp;dataPlatformVersionId=40289b7c601f2d9701601f2ff9a60001&amp;dataProjectId=40289b7c601f731801601f75222b0001&amp;test=false&amp;unitId=-1&amp;organizationId=-1&amp;userId=4028fbac62f1dba40163387a92dc5bd3&amp;isAsync=false&amp;bizParams={"redirectUrl":"https%3A%2F%2Fscjs2.59iedu.com%3A443%2Fcenter%2F%23%2FmyRealClass%2F2c9080f471c441890171f813df260c2f%2FexamResult%2F2c9080f471c441890171f813df260c2f"}
+</t>
   </si>
   <si>
     <t>wait exam</t>
@@ -156,16 +160,19 @@
     <t>Submitpapers</t>
   </si>
   <si>
-    <t>//*[@id="scroll_element"]/div/div[2]/div[3]/div/div/a</t>
+    <t>//input[@class="ng-pristine ng-valid"]</t>
   </si>
   <si>
     <t>submit</t>
   </si>
   <si>
-    <t>/html/body/div[2]/div[2]/div/div[3]/button[1]</t>
-  </si>
-  <si>
-    <t>returnclass</t>
+    <t>//a[@class="submit-a"]</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>//button[@class="btn btn-r ng-binding"]</t>
   </si>
 </sst>
 </file>
@@ -173,10 +180,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -196,9 +203,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,36 +284,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,46 +322,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -315,21 +337,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -340,13 +347,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,19 +509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,145 +521,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,13 +541,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,7 +599,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,64 +638,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,141 +656,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1133,10 +1143,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1210,7 +1220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="27" spans="1:6">
+    <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1226,11 +1236,11 @@
       <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="27" spans="1:6">
+    <row r="5" s="1" customFormat="1" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1246,11 +1256,11 @@
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="27" spans="1:6">
+    <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1270,7 +1280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="27" spans="1:6">
+    <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1290,7 +1300,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="27" spans="1:6">
+    <row r="8" s="1" customFormat="1" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1310,7 +1320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="27" spans="1:6">
+    <row r="9" s="1" customFormat="1" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1343,7 +1353,7 @@
       <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1378,13 +1388,13 @@
         <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>35</v>
+      <c r="E12" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
@@ -1395,15 +1405,15 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1418,13 +1428,13 @@
         <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>10</v>
@@ -1435,42 +1445,42 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:6">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:6">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1478,16 +1488,16 @@
         <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1495,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -1504,7 +1514,7 @@
         <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>10</v>
@@ -1515,39 +1525,62 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>37</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30:D65526">
+      <formula1>"xpath,name,id,css,text"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C6 C7 C8 C9 C10 C11 C13 C14 C15 C16 C17 C18 C19 C20 C4:C5">
+      <formula1>"访问,输入,点击,等待,查验"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D7 D8 D9 D10 D11 D13 D14 D15 D16 D17 D18 D19 D20 D5:D6 D21:D27">
+      <formula1>"URL,Xpath"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:C30">
       <formula1>"访问,输入,点击,等待"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C4:C5">
-      <formula1>"访问,输入,点击,等待,查验"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28:D29">
       <formula1>"URL、Xpath"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D5:D6 D20:D27">
-      <formula1>"URL,Xpath"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30:D65526">
-      <formula1>"xpath,name,id,css,text"</formula1>
-    </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E10" r:id="rId1" display="https://scjs2.59iedu.com/center/#/myRealClass/2c9080f471c441890171f813df260c2f"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
